--- a/doc/电子商务平台文档/平台数据字典.xlsx
+++ b/doc/电子商务平台文档/平台数据字典.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="351">
   <si>
     <t>字段</t>
   </si>
@@ -1397,16 +1397,21 @@
     <t>vehicle_seat,vehicle_exhaust,price_p,price_p,transmission_type,0,remark,1</t>
   </si>
   <si>
+    <t>where vehicle_name matches '*宝马*'</t>
+  </si>
+  <si>
+    <t>and vehicle_class in ('轿车类','越野车类')</t>
+  </si>
+  <si>
+    <t>表说明：汽车车型表,可以通过heidisql直接导入数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>validstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>from nb3302car3gdb@nb_3302_cb_rss:t_c_vehicle_msg</t>
-  </si>
-  <si>
-    <t>where vehicle_name matches '*宝马*'</t>
-  </si>
-  <si>
-    <t>and vehicle_class in ('轿车类','越野车类')</t>
-  </si>
-  <si>
-    <t>表说明：汽车车型表,可以通过heidisql直接导入数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2237,7 +2242,7 @@
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2263,7 +2268,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -2368,7 +2373,7 @@
         <v>138</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2386,7 +2391,7 @@
         <v>159</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2404,7 +2409,7 @@
         <v>158</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2612,7 +2617,7 @@
     </row>
     <row r="25" spans="1:5" ht="12.75" thickBot="1">
       <c r="A25" s="21" t="s">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>87</v>
@@ -2629,13 +2634,13 @@
     </row>
     <row r="26" spans="1:5" ht="12.75" thickBot="1"/>
     <row r="27" spans="1:5">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="45" t="s">
@@ -5722,8 +5727,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="A2:E2"/>
@@ -5742,6 +5745,8 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
